--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H2">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I2">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J2">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N2">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q2">
-        <v>6.005174025300001</v>
+        <v>24.65933358751456</v>
       </c>
       <c r="R2">
-        <v>54.0465662277</v>
+        <v>221.934002287631</v>
       </c>
       <c r="S2">
-        <v>0.0200124596581911</v>
+        <v>0.05170575736039172</v>
       </c>
       <c r="T2">
-        <v>0.0200124596581911</v>
+        <v>0.05170575736039173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H3">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I3">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J3">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N3">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q3">
-        <v>16.1579491694</v>
+        <v>50.23193267222178</v>
       </c>
       <c r="R3">
-        <v>145.4215425246</v>
+        <v>452.087394049996</v>
       </c>
       <c r="S3">
-        <v>0.05384695007162023</v>
+        <v>0.1053264522853318</v>
       </c>
       <c r="T3">
-        <v>0.05384695007162022</v>
+        <v>0.1053264522853318</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H4">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I4">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J4">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N4">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q4">
-        <v>10.88833345345</v>
+        <v>34.78340474820745</v>
       </c>
       <c r="R4">
-        <v>97.99500108104999</v>
+        <v>313.050642733867</v>
       </c>
       <c r="S4">
-        <v>0.03628576508591937</v>
+        <v>0.07293393715188327</v>
       </c>
       <c r="T4">
-        <v>0.03628576508591937</v>
+        <v>0.07293393715188329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H5">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I5">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J5">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N5">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O5">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P5">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q5">
-        <v>2.97416680015</v>
+        <v>8.428364772224667</v>
       </c>
       <c r="R5">
-        <v>26.76750120135</v>
+        <v>75.855282950022</v>
       </c>
       <c r="S5">
-        <v>0.009911518442924675</v>
+        <v>0.01767261804991244</v>
       </c>
       <c r="T5">
-        <v>0.009911518442924677</v>
+        <v>0.01767261804991244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.835809</v>
       </c>
       <c r="I6">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J6">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N6">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q6">
-        <v>17.39904412576734</v>
+        <v>22.98198185508256</v>
       </c>
       <c r="R6">
-        <v>156.591397131906</v>
+        <v>206.837836695743</v>
       </c>
       <c r="S6">
-        <v>0.0579829439065441</v>
+        <v>0.04818868171123168</v>
       </c>
       <c r="T6">
-        <v>0.0579829439065441</v>
+        <v>0.04818868171123169</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.835809</v>
       </c>
       <c r="I7">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J7">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N7">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q7">
-        <v>46.81510800450977</v>
+        <v>46.81510800450978</v>
       </c>
       <c r="R7">
-        <v>421.3359720405879</v>
+        <v>421.335972040588</v>
       </c>
       <c r="S7">
-        <v>0.1560130408189639</v>
+        <v>0.0981620450808659</v>
       </c>
       <c r="T7">
-        <v>0.1560130408189639</v>
+        <v>0.09816204508086591</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.835809</v>
       </c>
       <c r="I8">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J8">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N8">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q8">
-        <v>31.54722800946322</v>
+        <v>32.41740389878344</v>
       </c>
       <c r="R8">
-        <v>283.925052085169</v>
+        <v>291.756635089051</v>
       </c>
       <c r="S8">
-        <v>0.1051322784664178</v>
+        <v>0.06797290017168123</v>
       </c>
       <c r="T8">
-        <v>0.1051322784664178</v>
+        <v>0.06797290017168124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.835809</v>
       </c>
       <c r="I9">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J9">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N9">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O9">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P9">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q9">
-        <v>8.617178981855888</v>
+        <v>7.855059244640666</v>
       </c>
       <c r="R9">
-        <v>77.55461083670301</v>
+        <v>70.695533201766</v>
       </c>
       <c r="S9">
-        <v>0.02871706065723683</v>
+        <v>0.01647050946910154</v>
       </c>
       <c r="T9">
-        <v>0.02871706065723683</v>
+        <v>0.01647050946910154</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H10">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I10">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J10">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N10">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q10">
-        <v>22.520282295932</v>
+        <v>39.11726775768423</v>
       </c>
       <c r="R10">
-        <v>202.682540663388</v>
+        <v>352.0554098191581</v>
       </c>
       <c r="S10">
-        <v>0.07504965535380957</v>
+        <v>0.08202119283160053</v>
       </c>
       <c r="T10">
-        <v>0.07504965535380957</v>
+        <v>0.08202119283160053</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H11">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I11">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J11">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N11">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q11">
-        <v>60.59467637160265</v>
+        <v>79.68325475430312</v>
       </c>
       <c r="R11">
-        <v>545.3520873444239</v>
+        <v>717.1492927887281</v>
       </c>
       <c r="S11">
-        <v>0.2019339508362146</v>
+        <v>0.1670800640816322</v>
       </c>
       <c r="T11">
-        <v>0.2019339508362146</v>
+        <v>0.1670800640816322</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H12">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I12">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J12">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N12">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q12">
-        <v>40.83284548805133</v>
+        <v>55.17715035691178</v>
       </c>
       <c r="R12">
-        <v>367.495609392462</v>
+        <v>496.594353212206</v>
       </c>
       <c r="S12">
-        <v>0.1360769345927414</v>
+        <v>0.1156955981015173</v>
       </c>
       <c r="T12">
-        <v>0.1360769345927414</v>
+        <v>0.1156955981015173</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H13">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I13">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J13">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N13">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O13">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P13">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q13">
-        <v>11.15356118779933</v>
+        <v>13.36997207911067</v>
       </c>
       <c r="R13">
-        <v>100.382050690194</v>
+        <v>120.329748711996</v>
       </c>
       <c r="S13">
-        <v>0.03716964610444394</v>
+        <v>0.02803419361615382</v>
       </c>
       <c r="T13">
-        <v>0.03716964610444394</v>
+        <v>0.02803419361615382</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H14">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I14">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J14">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N14">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O14">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P14">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q14">
-        <v>4.094985033599334</v>
+        <v>12.81925794546278</v>
       </c>
       <c r="R14">
-        <v>36.85486530239401</v>
+        <v>115.373321509165</v>
       </c>
       <c r="S14">
-        <v>0.01364668574808021</v>
+        <v>0.02687945473124927</v>
       </c>
       <c r="T14">
-        <v>0.01364668574808021</v>
+        <v>0.02687945473124927</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H15">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I15">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J15">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N15">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O15">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P15">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q15">
-        <v>11.01825854564578</v>
+        <v>26.11328078834889</v>
       </c>
       <c r="R15">
-        <v>99.16432691081199</v>
+        <v>235.01952709514</v>
       </c>
       <c r="S15">
-        <v>0.03671874515530627</v>
+        <v>0.05475439778347373</v>
       </c>
       <c r="T15">
-        <v>0.03671874515530626</v>
+        <v>0.05475439778347373</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H16">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I16">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J16">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N16">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O16">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P16">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q16">
-        <v>7.424857688531223</v>
+        <v>18.08229878176722</v>
       </c>
       <c r="R16">
-        <v>66.823719196781</v>
+        <v>162.740689035905</v>
       </c>
       <c r="S16">
-        <v>0.02474360681864136</v>
+        <v>0.03791501299133033</v>
       </c>
       <c r="T16">
-        <v>0.02474360681864136</v>
+        <v>0.03791501299133034</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H17">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I17">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J17">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N17">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O17">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P17">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q17">
-        <v>2.028112504771889</v>
+        <v>4.381520761303333</v>
       </c>
       <c r="R17">
-        <v>18.253012542947</v>
+        <v>39.43368685173</v>
       </c>
       <c r="S17">
-        <v>0.006758758282944631</v>
+        <v>0.009187184582643181</v>
       </c>
       <c r="T17">
-        <v>0.00675875828294463</v>
+        <v>0.009187184582643183</v>
       </c>
     </row>
   </sheetData>
